--- a/data/trans_orig/P14A03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A03-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBEEC68D-B50B-4AE3-82E0-CFF9FFB223F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD6E1C5A-DB0A-4B87-8A11-07029E6722C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2A53B023-BEB0-4A35-BC24-414E792516E6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{279377E2-3194-4B08-BF1A-C988E636DA37}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="136">
   <si>
     <t>Población que recibe medicación o terapia por hipertensión en 2012 (Tasa respuesta: 18,63%)</t>
   </si>
@@ -75,7 +75,7 @@
     <t>99,39%</t>
   </si>
   <si>
-    <t>98,16%</t>
+    <t>97,94%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -87,298 +87,280 @@
     <t>97,73%</t>
   </si>
   <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por hipertensión en 2015 (Tasa respuesta: 15,94%)</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
     <t>99,62%</t>
   </si>
   <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por hipertensión en 2015 (Tasa respuesta: 15,94%)</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
+    <t>3,73%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>0,93%</t>
+    <t>4,28%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
   </si>
   <si>
     <t>98,02%</t>
   </si>
   <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
+    <t>95,32%</t>
   </si>
   <si>
     <t>95,48%</t>
   </si>
   <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
   </si>
   <si>
     <t>96,78%</t>
   </si>
   <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
+    <t>94,34%</t>
   </si>
   <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
+    <t>4,68%</t>
   </si>
   <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
   </si>
   <si>
     <t>3,22%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
+    <t>5,66%</t>
   </si>
   <si>
     <t>96,25%</t>
@@ -387,13 +369,13 @@
     <t>97,19%</t>
   </si>
   <si>
-    <t>86,04%</t>
+    <t>86,16%</t>
   </si>
   <si>
     <t>98,98%</t>
   </si>
   <si>
-    <t>94,99%</t>
+    <t>94,62%</t>
   </si>
   <si>
     <t>3,75%</t>
@@ -402,22 +384,22 @@
     <t>2,81%</t>
   </si>
   <si>
-    <t>13,96%</t>
+    <t>13,84%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>5,01%</t>
+    <t>5,38%</t>
   </si>
   <si>
     <t>98,39%</t>
   </si>
   <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
   </si>
   <si>
     <t>97,0%</t>
@@ -426,31 +408,31 @@
     <t>95,2%</t>
   </si>
   <si>
-    <t>98,27%</t>
+    <t>98,2%</t>
   </si>
   <si>
     <t>97,63%</t>
   </si>
   <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>1,73%</t>
+    <t>1,8%</t>
   </si>
   <si>
     <t>4,8%</t>
@@ -459,10 +441,10 @@
     <t>2,37%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
   </si>
 </sst>
 </file>
@@ -874,7 +856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC9776E-8FED-4DB3-BBB7-DED7E36208AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48231B94-88A3-47AD-BD8B-9BBCB0BC8D80}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1189,7 +1171,7 @@
         <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1204,13 +1186,13 @@
         <v>5248</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -1219,13 +1201,13 @@
         <v>2160</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -1234,13 +1216,13 @@
         <v>7408</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1296,7 +1278,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1311,7 +1293,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -1323,10 +1305,10 @@
         <v>29706</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -1338,10 +1320,10 @@
         <v>72792</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -1362,10 +1344,10 @@
         <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -1374,13 +1356,13 @@
         <v>1808</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1389,13 +1371,13 @@
         <v>1808</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1463,13 +1445,13 @@
         <v>564694</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>680</v>
@@ -1478,13 +1460,13 @@
         <v>733970</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M13" s="7">
         <v>1194</v>
@@ -1493,13 +1475,13 @@
         <v>1298664</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1514,13 +1496,13 @@
         <v>7311</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -1529,13 +1511,13 @@
         <v>10267</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -1544,13 +1526,13 @@
         <v>17578</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1606,7 +1588,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1625,7 +1607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC1C9C9-F8FA-42A5-B7C1-C78D61FE7AEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908EA9C2-0AE8-4E62-9666-192DF09FF2C5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1642,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1749,13 +1731,13 @@
         <v>225184</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H4" s="7">
         <v>318</v>
@@ -1764,13 +1746,13 @@
         <v>370433</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="M4" s="7">
         <v>556</v>
@@ -1779,13 +1761,13 @@
         <v>595618</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1800,13 +1782,13 @@
         <v>3755</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -1815,10 +1797,10 @@
         <v>8077</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>90</v>
@@ -1830,13 +1812,13 @@
         <v>11832</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1904,13 +1886,13 @@
         <v>222607</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>181</v>
@@ -1919,13 +1901,13 @@
         <v>207932</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M7" s="7">
         <v>391</v>
@@ -1934,13 +1916,13 @@
         <v>430539</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1955,13 +1937,13 @@
         <v>4490</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -1970,13 +1952,13 @@
         <v>9854</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -1985,13 +1967,13 @@
         <v>14344</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,7 +2029,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2062,7 +2044,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -2074,10 +2056,10 @@
         <v>31175</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2089,10 +2071,10 @@
         <v>87359</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2113,10 +2095,10 @@
         <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2125,13 +2107,13 @@
         <v>902</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2140,13 +2122,13 @@
         <v>902</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2214,13 +2196,13 @@
         <v>503976</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H13" s="7">
         <v>522</v>
@@ -2229,13 +2211,13 @@
         <v>609540</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M13" s="7">
         <v>1020</v>
@@ -2244,13 +2226,13 @@
         <v>1113516</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,13 +2247,13 @@
         <v>8245</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -2280,13 +2262,13 @@
         <v>18833</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M14" s="7">
         <v>24</v>
@@ -2295,13 +2277,13 @@
         <v>27078</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,7 +2339,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A03-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD6E1C5A-DB0A-4B87-8A11-07029E6722C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EC549AB-2C69-4954-B39B-BAC0B39C730E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{279377E2-3194-4B08-BF1A-C988E636DA37}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DEA83C9E-539B-4853-B8A3-9C6C69BD9DE9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="142">
   <si>
     <t>Población que recibe medicación o terapia por hipertensión en 2012 (Tasa respuesta: 18,63%)</t>
   </si>
@@ -75,7 +75,7 @@
     <t>99,39%</t>
   </si>
   <si>
-    <t>97,94%</t>
+    <t>98,17%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -84,7 +84,7 @@
     <t>98,89%</t>
   </si>
   <si>
-    <t>97,73%</t>
+    <t>97,62%</t>
   </si>
   <si>
     <t>99,61%</t>
@@ -93,10 +93,10 @@
     <t>99,08%</t>
   </si>
   <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
   </si>
   <si>
     <t>No</t>
@@ -108,7 +108,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,06%</t>
+    <t>1,83%</t>
   </si>
   <si>
     <t>1,11%</t>
@@ -117,16 +117,16 @@
     <t>0,39%</t>
   </si>
   <si>
-    <t>2,27%</t>
+    <t>2,38%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,43 +138,49 @@
     <t>97,24%</t>
   </si>
   <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
   </si>
   <si>
     <t>98,52%</t>
   </si>
   <si>
-    <t>94,64%</t>
+    <t>94,96%</t>
   </si>
   <si>
     <t>97,8%</t>
   </si>
   <si>
-    <t>95,38%</t>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
   </si>
   <si>
     <t>2,76%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
   </si>
   <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>5,36%</t>
+    <t>5,04%</t>
   </si>
   <si>
     <t>2,2%</t>
   </si>
   <si>
-    <t>4,62%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -186,13 +192,13 @@
     <t>94,26%</t>
   </si>
   <si>
-    <t>78,56%</t>
+    <t>82,06%</t>
   </si>
   <si>
     <t>97,58%</t>
   </si>
   <si>
-    <t>91,18%</t>
+    <t>92,33%</t>
   </si>
   <si>
     <t>0%</t>
@@ -204,82 +210,76 @@
     <t>5,74%</t>
   </si>
   <si>
-    <t>21,44%</t>
+    <t>17,94%</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>8,82%</t>
+    <t>7,67%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
   </si>
   <si>
     <t>98,62%</t>
   </si>
   <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
+    <t>99,28%</t>
   </si>
   <si>
     <t>98,66%</t>
   </si>
   <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
+    <t>0,72%</t>
   </si>
   <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por hipertensión en 2015 (Tasa respuesta: 15,94%)</t>
+    <t>Población que recibe medicación o terapia por hipertensión en 2016 (Tasa respuesta: 15,94%)</t>
   </si>
   <si>
     <t>98,36%</t>
   </si>
   <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
   </si>
   <si>
     <t>97,87%</t>
@@ -288,79 +288,97 @@
     <t>95,72%</t>
   </si>
   <si>
+    <t>99,11%</t>
+  </si>
+  <si>
     <t>98,05%</t>
   </si>
   <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
+    <t>0,89%</t>
+  </si>
+  <si>
     <t>4,28%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
   </si>
   <si>
     <t>98,02%</t>
   </si>
   <si>
-    <t>95,32%</t>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
   </si>
   <si>
     <t>95,48%</t>
   </si>
   <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
   </si>
   <si>
     <t>96,78%</t>
   </si>
   <si>
-    <t>94,34%</t>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
   </si>
   <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>4,68%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
   </si>
   <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
   </si>
   <si>
     <t>3,22%</t>
   </si>
   <si>
-    <t>5,66%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
   </si>
   <si>
     <t>96,25%</t>
@@ -369,13 +387,13 @@
     <t>97,19%</t>
   </si>
   <si>
-    <t>86,16%</t>
+    <t>87,49%</t>
   </si>
   <si>
     <t>98,98%</t>
   </si>
   <si>
-    <t>94,62%</t>
+    <t>94,19%</t>
   </si>
   <si>
     <t>3,75%</t>
@@ -384,28 +402,28 @@
     <t>2,81%</t>
   </si>
   <si>
-    <t>13,84%</t>
+    <t>12,51%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>5,38%</t>
+    <t>5,81%</t>
   </si>
   <si>
     <t>98,39%</t>
   </si>
   <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
   </si>
   <si>
     <t>97,0%</t>
   </si>
   <si>
-    <t>95,2%</t>
+    <t>95,24%</t>
   </si>
   <si>
     <t>98,2%</t>
@@ -414,19 +432,19 @@
     <t>97,63%</t>
   </si>
   <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
   </si>
   <si>
     <t>3,0%</t>
@@ -435,16 +453,16 @@
     <t>1,8%</t>
   </si>
   <si>
-    <t>4,8%</t>
+    <t>4,76%</t>
   </si>
   <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
   </si>
 </sst>
 </file>
@@ -856,7 +874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48231B94-88A3-47AD-BD8B-9BBCB0BC8D80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17845B1-B868-4EBD-AEFE-22D6D8F71BC8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1171,7 +1189,7 @@
         <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1186,13 +1204,13 @@
         <v>5248</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -1201,13 +1219,13 @@
         <v>2160</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -1216,13 +1234,13 @@
         <v>7408</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1278,7 +1296,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1293,7 +1311,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -1305,10 +1323,10 @@
         <v>29706</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -1320,10 +1338,10 @@
         <v>72792</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -1344,10 +1362,10 @@
         <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -1356,13 +1374,13 @@
         <v>1808</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1371,13 +1389,13 @@
         <v>1808</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1445,13 +1463,13 @@
         <v>564694</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>680</v>
@@ -1460,13 +1478,13 @@
         <v>733970</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>1194</v>
@@ -1475,13 +1493,13 @@
         <v>1298664</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1496,13 +1514,13 @@
         <v>7311</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -1511,13 +1529,13 @@
         <v>10267</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -1607,7 +1625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908EA9C2-0AE8-4E62-9666-192DF09FF2C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8F1A46-D9FA-49FF-928B-BF11E0AA6E5C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1752,7 +1770,7 @@
         <v>82</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="M4" s="7">
         <v>556</v>
@@ -1761,13 +1779,13 @@
         <v>595618</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1782,13 +1800,13 @@
         <v>3755</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -1797,13 +1815,13 @@
         <v>8077</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -1812,13 +1830,13 @@
         <v>11832</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1886,13 +1904,13 @@
         <v>222607</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="H7" s="7">
         <v>181</v>
@@ -1901,13 +1919,13 @@
         <v>207932</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M7" s="7">
         <v>391</v>
@@ -1916,13 +1934,13 @@
         <v>430539</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,13 +1955,13 @@
         <v>4490</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -1952,13 +1970,13 @@
         <v>9854</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -1967,13 +1985,13 @@
         <v>14344</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2029,7 +2047,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2044,7 +2062,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -2056,10 +2074,10 @@
         <v>31175</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2071,10 +2089,10 @@
         <v>87359</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2095,10 +2113,10 @@
         <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2107,13 +2125,13 @@
         <v>902</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2122,13 +2140,13 @@
         <v>902</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,13 +2214,13 @@
         <v>503976</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="H13" s="7">
         <v>522</v>
@@ -2211,13 +2229,13 @@
         <v>609540</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="M13" s="7">
         <v>1020</v>
@@ -2226,13 +2244,13 @@
         <v>1113516</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,13 +2265,13 @@
         <v>8245</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -2262,13 +2280,13 @@
         <v>18833</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M14" s="7">
         <v>24</v>
@@ -2277,13 +2295,13 @@
         <v>27078</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
